--- a/data/transformed_data05_03_24.xlsx
+++ b/data/transformed_data05_03_24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/symonets_h_pg_com/Documents/Documents/VScode projects/Hackathon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zimnyw\hackathon\CE-IT-Hub-Hackathon-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{0435774F-C435-48DA-BDDC-D588E28C746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39B12004-5169-47F9-AD6C-71DF227FBB2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8C9609-D722-41C1-A980-EA17EAEBDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="22" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="304">
   <si>
     <t>dynamika objawów</t>
   </si>
@@ -953,6 +953,18 @@
   </si>
   <si>
     <t>DM2</t>
+  </si>
+  <si>
+    <t>symptom_tag</t>
+  </si>
+  <si>
+    <t>eye,head,brain</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>body</t>
   </si>
 </sst>
 </file>
@@ -1330,18 +1342,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="65" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="17" width="14.5546875" style="3" customWidth="1"/>
+    <col min="2" max="17" width="14.54296875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="145" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1390,8 +1403,11 @@
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="R1" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1443,8 +1459,11 @@
       <c r="Q2" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="R2" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1496,8 +1515,11 @@
       <c r="Q3" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="R3" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1546,8 +1568,11 @@
       <c r="Q4" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="R4" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1593,8 +1618,11 @@
       <c r="Q5" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="R5" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1637,8 +1665,11 @@
       <c r="Q6" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="R6" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1678,8 +1709,11 @@
       <c r="Q7" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="R7" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="174" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1716,8 +1750,11 @@
       <c r="Q8" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="R8" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1748,8 +1785,11 @@
       <c r="Q9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="R9" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="Q10" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="R10" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1806,8 +1849,11 @@
       <c r="Q11" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="R11" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1832,8 +1878,11 @@
       <c r="Q12" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="R12" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1858,8 +1907,11 @@
       <c r="Q13" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="R13" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1884,8 +1936,11 @@
       <c r="Q14" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="R14" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1907,8 +1962,11 @@
       <c r="Q15" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R15" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1927,8 +1985,11 @@
       <c r="P16" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="R16" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1947,8 +2008,11 @@
       <c r="P17" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="R17" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1967,8 +2031,11 @@
       <c r="P18" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="R18" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="P19" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="R19" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1998,8 +2068,11 @@
       <c r="P20" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="R20" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2012,8 +2085,11 @@
       <c r="P21" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="R21" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2026,8 +2102,11 @@
       <c r="P22" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="R22" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="174" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2038,7 +2117,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2051,8 +2130,11 @@
       <c r="P24" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="R24" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2063,7 +2145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2074,7 +2156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2085,7 +2167,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2096,7 +2178,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2107,7 +2189,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2118,7 +2200,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2129,7 +2211,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2140,7 +2222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2151,7 +2233,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2162,7 +2244,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2173,7 +2255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2184,7 +2266,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2195,7 +2277,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2206,7 +2288,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2217,7 +2299,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2228,7 +2310,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2239,7 +2321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2250,7 +2332,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2261,7 +2343,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2272,7 +2354,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2283,7 +2365,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2294,7 +2376,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2305,7 +2387,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2316,7 +2398,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2327,7 +2409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2338,7 +2420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2349,7 +2431,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2360,7 +2442,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2371,7 +2453,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2382,7 +2464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2393,7 +2475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2404,7 +2486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2415,7 +2497,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2423,7 +2505,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2431,7 +2513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2439,7 +2521,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2447,7 +2529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2455,7 +2537,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2463,7 +2545,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2471,7 +2553,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2479,7 +2561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2487,7 +2569,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2495,7 +2577,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2503,7 +2585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2511,7 +2593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2519,7 +2601,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2527,7 +2609,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2535,7 +2617,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2543,7 +2625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2551,7 +2633,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2559,7 +2641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2567,7 +2649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2575,7 +2657,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2583,7 +2665,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2591,7 +2673,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2599,7 +2681,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2607,7 +2689,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2615,7 +2697,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2623,7 +2705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2631,7 +2713,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2639,7 +2721,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2647,7 +2729,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2655,7 +2737,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2663,7 +2745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2671,7 +2753,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2679,7 +2761,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2700,12 +2782,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="11.21875" style="3"/>
+    <col min="1" max="16384" width="11.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="216" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2755,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2802,7 +2884,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2828,7 +2910,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="232" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2845,7 +2927,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2862,7 +2944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2870,7 +2952,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2878,7 +2960,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2886,7 +2968,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2894,7 +2976,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2902,7 +2984,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2910,7 +2992,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2918,7 +3000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2939,12 +3021,12 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="18" width="10.77734375" style="3" customWidth="1"/>
+    <col min="1" max="18" width="10.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="216" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2994,7 +3076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3042,7 +3124,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3071,7 +3153,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="261" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3100,7 +3182,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3123,7 +3205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3146,7 +3228,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3163,7 +3245,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3180,7 +3262,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3191,7 +3273,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3202,7 +3284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3213,7 +3295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3221,7 +3303,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3242,16 +3324,16 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" style="3"/>
-    <col min="4" max="4" width="18.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="15.5546875" style="3"/>
+    <col min="1" max="1" width="3.453125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="15.54296875" style="3"/>
+    <col min="4" max="4" width="18.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="15.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3301,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3354,7 +3436,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3386,7 +3468,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3409,7 +3491,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3432,7 +3514,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3455,7 +3537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3472,7 +3554,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3492,7 +3574,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3512,7 +3594,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3529,7 +3611,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3546,7 +3628,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3557,7 +3639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3565,12 +3647,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3588,12 +3670,12 @@
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="16.88671875" style="3"/>
+    <col min="1" max="16384" width="16.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3643,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3693,7 +3775,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3722,7 +3804,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3748,7 +3830,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3768,7 +3850,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3785,7 +3867,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3805,7 +3887,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3825,7 +3907,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3842,7 +3924,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3859,7 +3941,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3876,7 +3958,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3887,7 +3969,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3895,7 +3977,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3903,7 +3985,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3911,7 +3993,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3919,32 +4001,32 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3962,12 +4044,12 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="17" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="17" width="17.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4017,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4067,7 +4149,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4099,7 +4181,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4119,7 +4201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4133,7 +4215,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4144,7 +4226,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4155,7 +4237,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4163,7 +4245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4174,7 +4256,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4182,7 +4264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4193,7 +4275,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4204,7 +4286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4215,7 +4297,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4236,20 +4318,20 @@
       <selection activeCell="P2" sqref="P2:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="3"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="3" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" customWidth="1"/>
-    <col min="8" max="17" width="12.6640625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="8" max="17" width="12.6328125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4299,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4343,7 +4425,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4366,7 +4448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4386,7 +4468,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4406,7 +4488,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4420,7 +4502,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4434,7 +4516,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4445,7 +4527,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4456,7 +4538,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4467,7 +4549,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4478,7 +4560,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4489,7 +4571,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4497,7 +4579,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4505,7 +4587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4513,7 +4595,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4534,23 +4616,23 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="3" customWidth="1"/>
-    <col min="10" max="13" width="11.77734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" style="3" customWidth="1"/>
-    <col min="16" max="17" width="14.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" style="3" customWidth="1"/>
+    <col min="10" max="13" width="11.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="3" customWidth="1"/>
+    <col min="16" max="17" width="14.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4600,7 +4682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4650,7 +4732,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4682,7 +4764,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4711,7 +4793,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4731,7 +4813,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4751,7 +4833,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4768,7 +4850,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4785,7 +4867,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4796,7 +4878,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4804,7 +4886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4812,7 +4894,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4820,7 +4902,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4839,7 +4921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4851,7 +4933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4863,7 +4945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4873,16 +4955,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="14" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4932,7 +5014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4985,7 +5067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5017,7 +5099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5037,7 +5119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5057,7 +5139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5077,7 +5159,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5088,7 +5170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5099,7 +5181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5110,12 +5192,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5131,7 +5213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5143,7 +5225,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5157,12 +5239,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="19" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -5212,7 +5294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5265,7 +5347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5306,7 +5388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5326,7 +5408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5343,7 +5425,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5360,7 +5442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5374,7 +5456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5388,7 +5470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5402,7 +5484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5416,7 +5498,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5430,7 +5512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5438,7 +5520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5459,12 +5541,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="15.21875" style="3"/>
+    <col min="1" max="16384" width="15.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -5514,7 +5596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5564,7 +5646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5593,7 +5675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5616,7 +5698,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5639,7 +5721,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5659,7 +5741,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5676,7 +5758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5693,7 +5775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5707,7 +5789,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5721,7 +5803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5735,7 +5817,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5759,12 +5841,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.5546875" style="3"/>
+    <col min="1" max="16384" width="12.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -5814,7 +5896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5861,7 +5943,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5887,7 +5969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5901,7 +5983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5922,12 +6004,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.33203125" style="3"/>
+    <col min="1" max="16384" width="12.36328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -5977,7 +6059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6027,7 +6109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6062,7 +6144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6082,7 +6164,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6093,7 +6175,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6101,7 +6183,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6122,12 +6204,12 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.44140625" style="3"/>
+    <col min="1" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -6177,7 +6259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6230,7 +6312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6265,7 +6347,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6288,7 +6370,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6302,7 +6384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6323,12 +6405,12 @@
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="13" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -6378,7 +6460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6428,7 +6510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6457,7 +6539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6474,7 +6556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6488,7 +6570,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6502,7 +6584,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6510,7 +6592,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -6521,7 +6603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -6529,7 +6611,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -6537,7 +6619,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -6545,7 +6627,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -6553,7 +6635,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -6574,12 +6656,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="17" width="8.88671875" style="3"/>
+    <col min="2" max="17" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
@@ -6629,7 +6711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6679,7 +6761,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="232" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6708,7 +6790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="319" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6728,7 +6810,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6742,7 +6824,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6750,7 +6832,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6758,7 +6840,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6766,7 +6848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
